--- a/IA_CCBS_BANK_SIDE/Position/Exposures_SearchCustomerAccounts.xlsx
+++ b/IA_CCBS_BANK_SIDE/Position/Exposures_SearchCustomerAccounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aafent\Desktop\IA\Interfaces\IA_CCBS_BANK_SIDE\Position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aafent\Desktop\IA\InterfacesGitHub\IA_CCBS_BANK_SIDE\Position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853FF18-D7DB-4AEC-9D96-F1384F8EC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB18B161-9102-4AF0-823D-C574DA93F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7800" windowWidth="29040" windowHeight="16440" tabRatio="711" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Data Type</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Product Id</t>
   </si>
   <si>
-    <t>Account Status</t>
-  </si>
-  <si>
-    <t>Account Check Digit</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
     <t>Monitoring Unit</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>varchar (40)</t>
   </si>
   <si>
-    <t>Account Type</t>
-  </si>
-  <si>
     <t>InCriteriaCustomerTypeCustomerSearch</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>May 2023</t>
-  </si>
-  <si>
     <t>Invocation</t>
   </si>
   <si>
@@ -177,13 +162,31 @@
     <t>Name</t>
   </si>
   <si>
-    <t>DownloadPositionAndDetails</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
     <t>Full customer's  position</t>
+  </si>
+  <si>
+    <t>Entity-Account Type</t>
+  </si>
+  <si>
+    <t>Entity-Account Number</t>
+  </si>
+  <si>
+    <t>Entity-Account Check Digit</t>
+  </si>
+  <si>
+    <t>Entity-Account Status</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>May 2024</t>
+  </si>
+  <si>
+    <t>SearchCustomerAccounts</t>
   </si>
 </sst>
 </file>
@@ -377,9 +380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,9 +420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,26 +455,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,26 +490,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -699,104 +668,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4D76D8-0DE4-410C-BE35-59B0F579CF70}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
@@ -809,31 +778,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="36.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -842,30 +811,30 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -873,16 +842,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -890,30 +859,36 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -930,31 +905,31 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="35.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -963,15 +938,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -980,26 +955,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1008,12 +983,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -1022,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1036,12 +1011,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1050,12 +1025,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
